--- a/Energy Consumption2.xlsx
+++ b/Energy Consumption2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.138261178872733</v>
+        <v>1.153878919646918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8511635092466289</v>
+        <v>1.42188496435751</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.339127323671699</v>
+        <v>8.572081016669772</v>
       </c>
       <c r="C3" t="n">
-        <v>1.844855176915814</v>
+        <v>2.830981203228037</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.480110912539753</v>
+        <v>9.200494610421321</v>
       </c>
       <c r="C4" t="n">
-        <v>2.900134082441389</v>
+        <v>4.446453976652502</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.914764872239003</v>
+        <v>10.50103078494874</v>
       </c>
       <c r="C5" t="n">
-        <v>3.812971595264513</v>
+        <v>5.832339325672852</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.801078753075243</v>
+        <v>18.967763382494</v>
       </c>
       <c r="C6" t="n">
-        <v>4.740597452429579</v>
+        <v>7.151241821523191</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.04478797399575</v>
+        <v>19.23972948902364</v>
       </c>
       <c r="C7" t="n">
-        <v>5.775908226466642</v>
+        <v>8.633334693791143</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.18784895723387</v>
+        <v>25.69875723445718</v>
       </c>
       <c r="C8" t="n">
-        <v>6.68178641808671</v>
+        <v>9.887305346799046</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.59618526500532</v>
+        <v>27.71724102012856</v>
       </c>
       <c r="C9" t="n">
-        <v>7.654168189662367</v>
+        <v>11.09873488619389</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16.71215965907956</v>
+        <v>28.91682808155998</v>
       </c>
       <c r="C10" t="n">
-        <v>8.453369881371673</v>
+        <v>12.49507968074602</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21.84572997813995</v>
+        <v>29.32629327005424</v>
       </c>
       <c r="C11" t="n">
-        <v>9.539714177784729</v>
+        <v>13.95047353686999</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.27704630906356</v>
+        <v>33.6071320299563</v>
       </c>
       <c r="C12" t="n">
-        <v>10.33542827027028</v>
+        <v>15.4039481908298</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.53947561050827</v>
+        <v>33.73200775847001</v>
       </c>
       <c r="C13" t="n">
-        <v>11.31807596819117</v>
+        <v>16.68865640904783</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.67219147229659</v>
+        <v>34.26943263270257</v>
       </c>
       <c r="C14" t="n">
-        <v>12.3399590906879</v>
+        <v>17.99496937955135</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.0331167282944</v>
+        <v>36.53323051239772</v>
       </c>
       <c r="C15" t="n">
-        <v>13.14265806849969</v>
+        <v>19.37827436681111</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.07584383190763</v>
+        <v>37.89174466619554</v>
       </c>
       <c r="C16" t="n">
-        <v>14.12057786617614</v>
+        <v>20.63830136446376</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.81328003738165</v>
+        <v>38.35016081964368</v>
       </c>
       <c r="C17" t="n">
-        <v>15.34969791492832</v>
+        <v>21.89283980788699</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>34.28745900592282</v>
+        <v>40.13946161702658</v>
       </c>
       <c r="C18" t="n">
-        <v>16.55244778477432</v>
+        <v>23.43506501934904</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>36.73528124429421</v>
+        <v>43.45331736390975</v>
       </c>
       <c r="C19" t="n">
-        <v>17.54327119659333</v>
+        <v>24.78048935579151</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>38.18833830358465</v>
+        <v>51.40063609145808</v>
       </c>
       <c r="C20" t="n">
-        <v>18.34842894908156</v>
+        <v>26.1791522549488</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38.52622845042468</v>
+        <v>56.37645327532704</v>
       </c>
       <c r="C21" t="n">
-        <v>19.15824357825915</v>
+        <v>27.45865051743643</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>42.06866076430128</v>
+        <v>58.43197744858656</v>
       </c>
       <c r="C22" t="n">
-        <v>20.40472667617674</v>
+        <v>29.39983088374621</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46.59360185938579</v>
+        <v>61.56425521650574</v>
       </c>
       <c r="C23" t="n">
-        <v>21.42203855376816</v>
+        <v>30.73557923526711</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.33676787852809</v>
+        <v>63.89383001009763</v>
       </c>
       <c r="C24" t="n">
-        <v>22.32526327870787</v>
+        <v>31.88463036038733</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>48.48238836907353</v>
+        <v>64.55994840438292</v>
       </c>
       <c r="C25" t="n">
-        <v>23.47223330327999</v>
+        <v>33.20342347340743</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>51.12577075983156</v>
+        <v>65.4669069213049</v>
       </c>
       <c r="C26" t="n">
-        <v>24.3739389953519</v>
+        <v>34.39435739783485</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>53.62192041742843</v>
+        <v>69.08919683735955</v>
       </c>
       <c r="C27" t="n">
-        <v>25.24537849519957</v>
+        <v>35.78777588225208</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.80423933492676</v>
+        <v>70.14177588856035</v>
       </c>
       <c r="C28" t="n">
-        <v>26.02829614700664</v>
+        <v>36.9973777818394</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>59.92308371057129</v>
+        <v>71.04152908506028</v>
       </c>
       <c r="C29" t="n">
-        <v>27.11099904904147</v>
+        <v>38.25409108435428</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>63.79461959436619</v>
+        <v>71.94272657987695</v>
       </c>
       <c r="C30" t="n">
-        <v>27.96612636249563</v>
+        <v>39.35656368941497</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>64.92420626030619</v>
+        <v>74.16414854777514</v>
       </c>
       <c r="C31" t="n">
-        <v>29.04015589599935</v>
+        <v>40.60033102221058</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.12132477734933</v>
+        <v>75.117084458447</v>
       </c>
       <c r="C32" t="n">
-        <v>29.97084864356895</v>
+        <v>41.7705375026037</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66.57749013636935</v>
+        <v>77.24657068392382</v>
       </c>
       <c r="C33" t="n">
-        <v>30.79370017043199</v>
+        <v>43.13818193468219</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>70.24444537794352</v>
+        <v>81.55808260037792</v>
       </c>
       <c r="C34" t="n">
-        <v>31.68342653403698</v>
+        <v>44.45433001447621</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>71.72765742928499</v>
+        <v>83.00676797187819</v>
       </c>
       <c r="C35" t="n">
-        <v>32.56666739307759</v>
+        <v>45.70323077914892</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>72.23557424097316</v>
+        <v>85.10352364378639</v>
       </c>
       <c r="C36" t="n">
-        <v>33.5304460814662</v>
+        <v>47.01634630455409</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>72.37628283530105</v>
+        <v>85.24309963097372</v>
       </c>
       <c r="C37" t="n">
-        <v>34.93541066732781</v>
+        <v>48.16719134883965</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>77.22079430165027</v>
+        <v>86.23240935339048</v>
       </c>
       <c r="C38" t="n">
-        <v>36.23627224865452</v>
+        <v>49.60940669504738</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>77.85957153986091</v>
+        <v>88.4642341938564</v>
       </c>
       <c r="C39" t="n">
-        <v>37.15659190755291</v>
+        <v>51.20928921728122</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.78397710605761</v>
+        <v>88.82085648802716</v>
       </c>
       <c r="C40" t="n">
-        <v>38.08063793709657</v>
+        <v>52.63974194663394</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>87.04244259536317</v>
+        <v>89.00935976293485</v>
       </c>
       <c r="C41" t="n">
-        <v>39.33503109691271</v>
+        <v>53.87739762733833</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>87.29765882885984</v>
+        <v>89.82541420659417</v>
       </c>
       <c r="C42" t="n">
-        <v>40.1211407666213</v>
+        <v>55.28760591085513</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>88.48701975318868</v>
+        <v>91.42222524487751</v>
       </c>
       <c r="C43" t="n">
-        <v>41.58007461355291</v>
+        <v>56.62860274626167</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>88.64404436674322</v>
+        <v>91.91879571052451</v>
       </c>
       <c r="C44" t="n">
-        <v>42.55005699555692</v>
+        <v>57.99631718147283</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>91.69088667969571</v>
+        <v>95.39337758099614</v>
       </c>
       <c r="C45" t="n">
-        <v>43.46535646588938</v>
+        <v>59.57284302940161</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.88822143968937</v>
+        <v>95.50208326931305</v>
       </c>
       <c r="C46" t="n">
-        <v>44.14461785972877</v>
+        <v>61.0361062415381</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>95.73658683519174</v>
+        <v>96.095439941102</v>
       </c>
       <c r="C47" t="n">
-        <v>45.01039985255708</v>
+        <v>62.30560557392884</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>95.89615799438104</v>
+        <v>97.52877653404371</v>
       </c>
       <c r="C48" t="n">
-        <v>45.83087296161797</v>
+        <v>63.8651357521776</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.76285611661744</v>
+        <v>97.64767765213379</v>
       </c>
       <c r="C49" t="n">
-        <v>46.89142980368198</v>
+        <v>65.10867722405796</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>99.58789267194999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>66.34743703584</v>
       </c>
     </row>
   </sheetData>
